--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -19,14 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
-  <si>
-    <t>添加 is_edit 字段 类型int</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>type-&gt;is_lock</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>审批</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -80,10 +73,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>字段修改</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>flow_type</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -101,6 +90,42 @@
   </si>
   <si>
     <t>完善</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批无法提交，弹窗用户信息undefind 错误</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>原字段</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新字段</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_edit</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_lock</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -108,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +300,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -709,11 +742,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -723,6 +753,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1046,136 +1082,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="50.21875" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="37.77734375" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>41593</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>41593</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>41592</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>41592</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>41596</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>15</v>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>41593</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="7" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>41596</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>41597</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>41593</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>41592</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D8" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>41592</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>41231</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>41231</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>审批</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -126,6 +126,30 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_no</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除google cdn jquery</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1082,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1237,6 +1261,40 @@
         <v>20</v>
       </c>
     </row>
+    <row r="9" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>41600</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>41600</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>审批</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>删除google cdn jquery</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Editor</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.06 升级到 4.10</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1106,23 +1118,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19.8" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="50.21875" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1145,7 +1158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>41593</v>
       </c>
@@ -1159,7 +1172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>41593</v>
       </c>
@@ -1182,7 +1195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>41592</v>
       </c>
@@ -1196,7 +1209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>41592</v>
       </c>
@@ -1210,7 +1223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>41596</v>
       </c>
@@ -1233,7 +1246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>41596</v>
       </c>
@@ -1247,7 +1260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>41597</v>
       </c>
@@ -1261,7 +1274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>41600</v>
       </c>
@@ -1281,7 +1294,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>41600</v>
       </c>
@@ -1293,6 +1306,20 @@
       </c>
       <c r="D10" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>41606</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\demo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22956" windowHeight="10164"/>
+    <workbookView windowWidth="22960" windowHeight="10160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更新日志" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>日期</t>
   </si>
@@ -130,19 +125,31 @@
     <t>mkdir 参数 0777-&gt;o777</t>
   </si>
   <si>
+    <t>菜单</t>
+  </si>
+  <si>
+    <t>多层菜单显示错误</t>
+  </si>
+  <si>
+    <t>权限</t>
+  </si>
+  <si>
+    <t>文档权限验证方法修改</t>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
     <t>优先级</t>
   </si>
   <si>
     <t>头像</t>
   </si>
   <si>
-    <t>Bug处理</t>
+    <t>完成</t>
   </si>
   <si>
     <t>中</t>
-  </si>
-  <si>
-    <t>权限</t>
   </si>
   <si>
     <t>高</t>
@@ -163,8 +170,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -173,6 +186,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="18"/>
       <color indexed="62"/>
       <name val="宋体"/>
@@ -187,6 +205,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
@@ -195,7 +221,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="52"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -209,41 +289,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="52"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -257,35 +304,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
@@ -299,19 +317,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="17">
@@ -329,7 +334,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,13 +370,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,25 +388,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,32 +416,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -424,18 +429,14 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="thick">
         <color indexed="49"/>
       </bottom>
       <diagonal/>
@@ -460,6 +461,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="23"/>
       </left>
       <right style="thin">
@@ -474,11 +490,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,162 +539,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -660,10 +687,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -672,64 +699,59 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="1"/>
-    <cellStyle name="20% - 着色 2" xfId="6"/>
-    <cellStyle name="20% - 着色 3" xfId="3"/>
-    <cellStyle name="20% - 着色 4" xfId="7"/>
-    <cellStyle name="20% - 着色 5" xfId="8"/>
-    <cellStyle name="20% - 着色 6" xfId="11"/>
-    <cellStyle name="40% - 着色 1" xfId="2"/>
-    <cellStyle name="40% - 着色 2" xfId="13"/>
-    <cellStyle name="40% - 着色 3" xfId="4"/>
-    <cellStyle name="40% - 着色 4" xfId="14"/>
-    <cellStyle name="40% - 着色 5" xfId="16"/>
-    <cellStyle name="40% - 着色 6" xfId="18"/>
-    <cellStyle name="60% - 着色 1" xfId="19"/>
-    <cellStyle name="60% - 着色 2" xfId="20"/>
-    <cellStyle name="60% - 着色 3" xfId="22"/>
-    <cellStyle name="60% - 着色 4" xfId="23"/>
-    <cellStyle name="60% - 着色 5" xfId="24"/>
-    <cellStyle name="60% - 着色 6" xfId="26"/>
-    <cellStyle name="标题" xfId="5"/>
-    <cellStyle name="标题 1" xfId="27"/>
-    <cellStyle name="标题 2" xfId="28"/>
-    <cellStyle name="标题 3" xfId="29"/>
-    <cellStyle name="标题 4" xfId="30"/>
-    <cellStyle name="差" xfId="32"/>
+  <cellStyles count="47">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="17"/>
-    <cellStyle name="汇总" xfId="33"/>
-    <cellStyle name="计算" xfId="15"/>
-    <cellStyle name="检查单元格" xfId="34"/>
-    <cellStyle name="解释性文本" xfId="9"/>
-    <cellStyle name="警告文本" xfId="31"/>
-    <cellStyle name="链接单元格" xfId="25"/>
-    <cellStyle name="适中" xfId="35"/>
-    <cellStyle name="输出" xfId="37"/>
-    <cellStyle name="输入" xfId="21"/>
-    <cellStyle name="着色 1" xfId="10"/>
-    <cellStyle name="着色 2" xfId="12"/>
-    <cellStyle name="着色 3" xfId="38"/>
-    <cellStyle name="着色 4" xfId="39"/>
-    <cellStyle name="着色 5" xfId="36"/>
-    <cellStyle name="着色 6" xfId="40"/>
-    <cellStyle name="注释" xfId="41"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="20% - 着色 1" xfId="2"/>
+    <cellStyle name="货币" xfId="3" builtinId="4"/>
+    <cellStyle name="20% - 着色 3" xfId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 着色 1" xfId="6"/>
+    <cellStyle name="百分比" xfId="7" builtinId="5"/>
+    <cellStyle name="标题" xfId="8"/>
+    <cellStyle name="40% - 着色 3" xfId="9"/>
+    <cellStyle name="货币[0]" xfId="10" builtinId="7"/>
+    <cellStyle name="20% - 着色 2" xfId="11"/>
+    <cellStyle name="20% - 着色 4" xfId="12"/>
+    <cellStyle name="着色 1" xfId="13"/>
+    <cellStyle name="解释性文本" xfId="14"/>
+    <cellStyle name="20% - 着色 5" xfId="15"/>
+    <cellStyle name="着色 2" xfId="16"/>
+    <cellStyle name="20% - 着色 6" xfId="17"/>
+    <cellStyle name="40% - 着色 2" xfId="18"/>
+    <cellStyle name="计算" xfId="19"/>
+    <cellStyle name="40% - 着色 4" xfId="20"/>
+    <cellStyle name="好" xfId="21"/>
+    <cellStyle name="40% - 着色 5" xfId="22"/>
+    <cellStyle name="40% - 着色 6" xfId="23"/>
+    <cellStyle name="60% - 着色 1" xfId="24"/>
+    <cellStyle name="输入" xfId="25"/>
+    <cellStyle name="60% - 着色 2" xfId="26"/>
+    <cellStyle name="60% - 着色 3" xfId="27"/>
+    <cellStyle name="60% - 着色 4" xfId="28"/>
+    <cellStyle name="链接单元格" xfId="29"/>
+    <cellStyle name="60% - 着色 5" xfId="30"/>
+    <cellStyle name="60% - 着色 6" xfId="31"/>
+    <cellStyle name="标题 1" xfId="32"/>
+    <cellStyle name="标题 2" xfId="33"/>
+    <cellStyle name="标题 3" xfId="34"/>
+    <cellStyle name="警告文本" xfId="35"/>
+    <cellStyle name="标题 4" xfId="36"/>
+    <cellStyle name="差" xfId="37"/>
+    <cellStyle name="汇总" xfId="38"/>
+    <cellStyle name="检查单元格" xfId="39"/>
+    <cellStyle name="着色 5" xfId="40"/>
+    <cellStyle name="适中" xfId="41"/>
+    <cellStyle name="输出" xfId="42"/>
+    <cellStyle name="着色 3" xfId="43"/>
+    <cellStyle name="着色 4" xfId="44"/>
+    <cellStyle name="着色 6" xfId="45"/>
+    <cellStyle name="注释" xfId="46"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1028,7 +1050,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1063,25 +1084,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="50.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.2222222222222" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.55555555555556" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.11111111111111" style="3" customWidth="1"/>
+    <col min="4" max="4" width="50.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="12.3333333333333" style="3" customWidth="1"/>
     <col min="6" max="6" width="12" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.8888888888889" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="4">
         <v>41593</v>
       </c>
@@ -1118,7 +1140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="4">
         <v>41593</v>
       </c>
@@ -1141,7 +1163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="4">
         <v>41592</v>
       </c>
@@ -1155,7 +1177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="4">
         <v>41592</v>
       </c>
@@ -1169,7 +1191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="4">
         <v>41596</v>
       </c>
@@ -1192,7 +1214,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="4">
         <v>41596</v>
       </c>
@@ -1206,7 +1228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="4">
         <v>41597</v>
       </c>
@@ -1220,7 +1242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="4">
         <v>41600</v>
       </c>
@@ -1240,7 +1262,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="4">
         <v>41600</v>
       </c>
@@ -1254,7 +1276,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="4">
         <v>41606</v>
       </c>
@@ -1268,7 +1290,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="4">
         <v>41246</v>
       </c>
@@ -1279,7 +1301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="4">
         <v>41246</v>
       </c>
@@ -1293,45 +1315,73 @@
         <v>35</v>
       </c>
     </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="4">
+        <v>41246</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="4">
+        <v>41246</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="47.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="11.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="47.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="11.8888888888889"/>
+    <col min="5" max="5" width="10.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="9.88888888888889" customWidth="1"/>
+    <col min="7" max="7" width="11.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -1343,60 +1393,60 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="D6" s="4"/>
@@ -1404,21 +1454,21 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="D8" s="4"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="D9" s="4"/>
@@ -1426,14 +1476,14 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="D11" s="4"/>
@@ -1441,8 +1491,7 @@
       <c r="F11" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22960" windowHeight="10160" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22956" windowHeight="10164" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更新日志" sheetId="1" r:id="rId1"/>
     <sheet name="计划" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>日期</t>
   </si>
@@ -158,50 +158,57 @@
     <t>用户配置文件</t>
   </si>
   <si>
-    <t>自动插入</t>
-  </si>
-  <si>
     <t>编辑器</t>
   </si>
   <si>
     <t>编辑器自定义调用部分</t>
+  </si>
+  <si>
+    <t>保存路径</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增用户时自动插入UserConfig表</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传文件</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证文件后缀名，及升级为plupload 2.0</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证文件后缀名，及升级为plupload 2.0</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -209,21 +216,18 @@
       <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -231,7 +235,6 @@
       <sz val="11"/>
       <color indexed="23"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -239,7 +242,6 @@
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -247,7 +249,6 @@
       <sz val="13"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -255,14 +256,12 @@
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -270,14 +269,12 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -285,14 +282,12 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -300,7 +295,6 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -308,15 +302,24 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="17">
@@ -325,6 +328,48 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -334,43 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,7 +391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,31 +415,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -445,6 +441,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="44"/>
       </bottom>
@@ -453,24 +458,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
       <top style="thin">
-        <color indexed="22"/>
+        <color indexed="49"/>
       </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,6 +482,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="63"/>
       </left>
@@ -505,181 +521,146 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
       <top style="thin">
-        <color indexed="49"/>
+        <color indexed="22"/>
       </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -687,10 +668,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -699,59 +680,56 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="42">
+    <cellStyle name="20% - 着色 1" xfId="1"/>
+    <cellStyle name="20% - 着色 2" xfId="2"/>
+    <cellStyle name="20% - 着色 3" xfId="3"/>
+    <cellStyle name="20% - 着色 4" xfId="4"/>
+    <cellStyle name="20% - 着色 5" xfId="5"/>
+    <cellStyle name="20% - 着色 6" xfId="6"/>
+    <cellStyle name="40% - 着色 1" xfId="7"/>
+    <cellStyle name="40% - 着色 2" xfId="8"/>
+    <cellStyle name="40% - 着色 3" xfId="9"/>
+    <cellStyle name="40% - 着色 4" xfId="10"/>
+    <cellStyle name="40% - 着色 5" xfId="11"/>
+    <cellStyle name="40% - 着色 6" xfId="12"/>
+    <cellStyle name="60% - 着色 1" xfId="13"/>
+    <cellStyle name="60% - 着色 2" xfId="14"/>
+    <cellStyle name="60% - 着色 3" xfId="15"/>
+    <cellStyle name="60% - 着色 4" xfId="16"/>
+    <cellStyle name="60% - 着色 5" xfId="17"/>
+    <cellStyle name="60% - 着色 6" xfId="18"/>
+    <cellStyle name="标题" xfId="19"/>
+    <cellStyle name="标题 1" xfId="20"/>
+    <cellStyle name="标题 2" xfId="21"/>
+    <cellStyle name="标题 3" xfId="22"/>
+    <cellStyle name="标题 4" xfId="23"/>
+    <cellStyle name="差" xfId="24"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="20% - 着色 1" xfId="2"/>
-    <cellStyle name="货币" xfId="3" builtinId="4"/>
-    <cellStyle name="20% - 着色 3" xfId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 着色 1" xfId="6"/>
-    <cellStyle name="百分比" xfId="7" builtinId="5"/>
-    <cellStyle name="标题" xfId="8"/>
-    <cellStyle name="40% - 着色 3" xfId="9"/>
-    <cellStyle name="货币[0]" xfId="10" builtinId="7"/>
-    <cellStyle name="20% - 着色 2" xfId="11"/>
-    <cellStyle name="20% - 着色 4" xfId="12"/>
-    <cellStyle name="着色 1" xfId="13"/>
-    <cellStyle name="解释性文本" xfId="14"/>
-    <cellStyle name="20% - 着色 5" xfId="15"/>
-    <cellStyle name="着色 2" xfId="16"/>
-    <cellStyle name="20% - 着色 6" xfId="17"/>
-    <cellStyle name="40% - 着色 2" xfId="18"/>
-    <cellStyle name="计算" xfId="19"/>
-    <cellStyle name="40% - 着色 4" xfId="20"/>
-    <cellStyle name="好" xfId="21"/>
-    <cellStyle name="40% - 着色 5" xfId="22"/>
-    <cellStyle name="40% - 着色 6" xfId="23"/>
-    <cellStyle name="60% - 着色 1" xfId="24"/>
-    <cellStyle name="输入" xfId="25"/>
-    <cellStyle name="60% - 着色 2" xfId="26"/>
-    <cellStyle name="60% - 着色 3" xfId="27"/>
-    <cellStyle name="60% - 着色 4" xfId="28"/>
-    <cellStyle name="链接单元格" xfId="29"/>
-    <cellStyle name="60% - 着色 5" xfId="30"/>
-    <cellStyle name="60% - 着色 6" xfId="31"/>
-    <cellStyle name="标题 1" xfId="32"/>
-    <cellStyle name="标题 2" xfId="33"/>
-    <cellStyle name="标题 3" xfId="34"/>
-    <cellStyle name="警告文本" xfId="35"/>
-    <cellStyle name="标题 4" xfId="36"/>
-    <cellStyle name="差" xfId="37"/>
-    <cellStyle name="汇总" xfId="38"/>
-    <cellStyle name="检查单元格" xfId="39"/>
-    <cellStyle name="着色 5" xfId="40"/>
-    <cellStyle name="适中" xfId="41"/>
-    <cellStyle name="输出" xfId="42"/>
-    <cellStyle name="着色 3" xfId="43"/>
-    <cellStyle name="着色 4" xfId="44"/>
-    <cellStyle name="着色 6" xfId="45"/>
-    <cellStyle name="注释" xfId="46"/>
+    <cellStyle name="好" xfId="25"/>
+    <cellStyle name="汇总" xfId="26"/>
+    <cellStyle name="计算" xfId="27"/>
+    <cellStyle name="检查单元格" xfId="28"/>
+    <cellStyle name="解释性文本" xfId="29"/>
+    <cellStyle name="警告文本" xfId="30"/>
+    <cellStyle name="链接单元格" xfId="31"/>
+    <cellStyle name="适中" xfId="32"/>
+    <cellStyle name="输出" xfId="33"/>
+    <cellStyle name="输入" xfId="34"/>
+    <cellStyle name="着色 1" xfId="35"/>
+    <cellStyle name="着色 2" xfId="36"/>
+    <cellStyle name="着色 3" xfId="37"/>
+    <cellStyle name="着色 4" xfId="38"/>
+    <cellStyle name="着色 5" xfId="39"/>
+    <cellStyle name="着色 6" xfId="40"/>
+    <cellStyle name="注释" xfId="41"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -1050,6 +1028,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1084,26 +1063,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.2222222222222" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.55555555555556" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.11111111111111" style="3" customWidth="1"/>
-    <col min="4" max="4" width="50.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="12.3333333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="50.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="12" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.8888888888889" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="19.8" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
+    <row r="2" spans="1:7" ht="19.8" customHeight="1">
       <c r="A2" s="4">
         <v>41593</v>
       </c>
@@ -1140,7 +1118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="19.8" customHeight="1">
       <c r="A3" s="4">
         <v>41593</v>
       </c>
@@ -1163,7 +1141,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
+    <row r="4" spans="1:7" ht="19.8" customHeight="1">
       <c r="A4" s="4">
         <v>41592</v>
       </c>
@@ -1177,7 +1155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:7" ht="19.8" customHeight="1">
       <c r="A5" s="4">
         <v>41592</v>
       </c>
@@ -1191,7 +1169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="19.8" customHeight="1">
       <c r="A6" s="4">
         <v>41596</v>
       </c>
@@ -1214,7 +1192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
+    <row r="7" spans="1:7" ht="19.8" customHeight="1">
       <c r="A7" s="4">
         <v>41596</v>
       </c>
@@ -1228,7 +1206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
+    <row r="8" spans="1:7" ht="19.8" customHeight="1">
       <c r="A8" s="4">
         <v>41597</v>
       </c>
@@ -1242,7 +1220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:7">
+    <row r="9" spans="1:7" ht="19.8" customHeight="1">
       <c r="A9" s="4">
         <v>41600</v>
       </c>
@@ -1262,7 +1240,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
+    <row r="10" spans="1:7" ht="19.8" customHeight="1">
       <c r="A10" s="4">
         <v>41600</v>
       </c>
@@ -1276,7 +1254,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
+    <row r="11" spans="1:7" ht="19.8" customHeight="1">
       <c r="A11" s="4">
         <v>41606</v>
       </c>
@@ -1290,9 +1268,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:3">
+    <row r="12" spans="1:7" ht="19.8" customHeight="1">
       <c r="A12" s="4">
-        <v>41246</v>
+        <v>41611</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>34</v>
@@ -1301,9 +1279,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
+    <row r="13" spans="1:7" ht="19.8" customHeight="1">
       <c r="A13" s="4">
-        <v>41246</v>
+        <v>41611</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>24</v>
@@ -1315,9 +1293,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:4">
+    <row r="14" spans="1:7" ht="19.8" customHeight="1">
       <c r="A14" s="4">
-        <v>41246</v>
+        <v>41611</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>36</v>
@@ -1329,9 +1307,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:4">
+    <row r="15" spans="1:7" ht="19.8" customHeight="1">
       <c r="A15" s="4">
-        <v>41246</v>
+        <v>41611</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>38</v>
@@ -1343,34 +1321,75 @@
         <v>39</v>
       </c>
     </row>
+    <row r="16" spans="1:7" ht="19.8" customHeight="1">
+      <c r="A16" s="4">
+        <v>41612</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="19.8" customHeight="1">
+      <c r="A17" s="4">
+        <v>41618</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19.8" customHeight="1">
+      <c r="A18" s="4">
+        <v>41618</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="11.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="47.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889"/>
-    <col min="5" max="5" width="10.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="9.88888888888889" customWidth="1"/>
-    <col min="7" max="7" width="11.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="47.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1393,7 +1412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
@@ -1409,7 +1428,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -1423,52 +1442,54 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7" ht="18" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:7" ht="18" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="B6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7" ht="18" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7" ht="18" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="D8" s="4"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="18" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="D9" s="4"/>
@@ -1476,14 +1497,14 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7" ht="18" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7" ht="18" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="D11" s="4"/>
@@ -1491,7 +1512,8 @@
       <c r="F11" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
   <si>
     <t>日期</t>
   </si>
@@ -202,6 +202,14 @@
   </si>
   <si>
     <t>修复部分Linux下兼容问题</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整邮件相关插件位置 从Thinkphp-&gt;vender 移动到 App-Lib-&gt;ORG</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1089,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1414,6 +1422,20 @@
       </c>
       <c r="D20" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>41655</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\demo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22956" windowHeight="10164"/>
+    <workbookView windowWidth="28700" windowHeight="13040"/>
   </bookViews>
   <sheets>
     <sheet name="更新日志" sheetId="1" r:id="rId1"/>
     <sheet name="计划" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>日期</t>
   </si>
@@ -142,6 +137,54 @@
     <t>文档权限验证方法修改</t>
   </si>
   <si>
+    <t>用户</t>
+  </si>
+  <si>
+    <t>新增用户时自动插入UserConfig表</t>
+  </si>
+  <si>
+    <t>上传文件</t>
+  </si>
+  <si>
+    <t>验证文件后缀名，及升级为plupload 2.0</t>
+  </si>
+  <si>
+    <t>调整目录结构</t>
+  </si>
+  <si>
+    <t>修复部分Linux下兼容问题</t>
+  </si>
+  <si>
+    <t>邮件</t>
+  </si>
+  <si>
+    <t>调整邮件相关插件位置 从Thinkphp-&gt;vender 移动到 App-Lib-&gt;ORG</t>
+  </si>
+  <si>
+    <t>流程</t>
+  </si>
+  <si>
+    <t>分组改成Textbox</t>
+  </si>
+  <si>
+    <t>添加演示用数据</t>
+  </si>
+  <si>
+    <t>js</t>
+  </si>
+  <si>
+    <t>Jquery</t>
+  </si>
+  <si>
+    <t>联系人无法搜索错误</t>
+  </si>
+  <si>
+    <t>信息提示，错误提示</t>
+  </si>
+  <si>
+    <t>使用模版插件</t>
+  </si>
+  <si>
     <t>结果</t>
   </si>
   <si>
@@ -170,57 +213,27 @@
   </si>
   <si>
     <t>保存路径</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增用户时自动插入UserConfig表</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传文件</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证文件后缀名，及升级为plupload 2.0</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证文件后缀名，及升级为plupload 2.0</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整目录结构</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复部分Linux下兼容问题</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整邮件相关插件位置 从Thinkphp-&gt;vender 移动到 App-Lib-&gt;ORG</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -237,8 +250,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -250,8 +269,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -265,27 +299,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -298,51 +318,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="15"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -356,7 +345,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,37 +363,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,7 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,19 +411,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,37 +446,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
       </top>
       <bottom style="double">
-        <color indexed="49"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,26 +482,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
       <bottom style="double">
-        <color indexed="52"/>
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,146 +532,164 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -693,10 +697,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -705,64 +709,59 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="1"/>
-    <cellStyle name="20% - 着色 2" xfId="2"/>
-    <cellStyle name="20% - 着色 3" xfId="3"/>
-    <cellStyle name="20% - 着色 4" xfId="4"/>
-    <cellStyle name="20% - 着色 5" xfId="5"/>
-    <cellStyle name="20% - 着色 6" xfId="6"/>
-    <cellStyle name="40% - 着色 1" xfId="7"/>
-    <cellStyle name="40% - 着色 2" xfId="8"/>
+  <cellStyles count="47">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="20% - 着色 1" xfId="2"/>
+    <cellStyle name="货币" xfId="3" builtinId="4"/>
+    <cellStyle name="20% - 着色 3" xfId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 着色 1" xfId="6"/>
+    <cellStyle name="百分比" xfId="7" builtinId="5"/>
+    <cellStyle name="标题" xfId="8"/>
     <cellStyle name="40% - 着色 3" xfId="9"/>
-    <cellStyle name="40% - 着色 4" xfId="10"/>
-    <cellStyle name="40% - 着色 5" xfId="11"/>
-    <cellStyle name="40% - 着色 6" xfId="12"/>
-    <cellStyle name="60% - 着色 1" xfId="13"/>
-    <cellStyle name="60% - 着色 2" xfId="14"/>
-    <cellStyle name="60% - 着色 3" xfId="15"/>
-    <cellStyle name="60% - 着色 4" xfId="16"/>
-    <cellStyle name="60% - 着色 5" xfId="17"/>
-    <cellStyle name="60% - 着色 6" xfId="18"/>
-    <cellStyle name="标题" xfId="19"/>
-    <cellStyle name="标题 1" xfId="20"/>
-    <cellStyle name="标题 2" xfId="21"/>
-    <cellStyle name="标题 3" xfId="22"/>
-    <cellStyle name="标题 4" xfId="23"/>
-    <cellStyle name="差" xfId="24"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="25"/>
-    <cellStyle name="汇总" xfId="26"/>
-    <cellStyle name="计算" xfId="27"/>
-    <cellStyle name="检查单元格" xfId="28"/>
-    <cellStyle name="解释性文本" xfId="29"/>
-    <cellStyle name="警告文本" xfId="30"/>
-    <cellStyle name="链接单元格" xfId="31"/>
-    <cellStyle name="适中" xfId="32"/>
-    <cellStyle name="输出" xfId="33"/>
-    <cellStyle name="输入" xfId="34"/>
-    <cellStyle name="着色 1" xfId="35"/>
-    <cellStyle name="着色 2" xfId="36"/>
-    <cellStyle name="着色 3" xfId="37"/>
-    <cellStyle name="着色 4" xfId="38"/>
-    <cellStyle name="着色 5" xfId="39"/>
-    <cellStyle name="着色 6" xfId="40"/>
-    <cellStyle name="注释" xfId="41"/>
+    <cellStyle name="货币[0]" xfId="10" builtinId="7"/>
+    <cellStyle name="20% - 着色 2" xfId="11"/>
+    <cellStyle name="20% - 着色 4" xfId="12"/>
+    <cellStyle name="着色 1" xfId="13"/>
+    <cellStyle name="解释性文本" xfId="14"/>
+    <cellStyle name="20% - 着色 5" xfId="15"/>
+    <cellStyle name="着色 2" xfId="16"/>
+    <cellStyle name="20% - 着色 6" xfId="17"/>
+    <cellStyle name="40% - 着色 2" xfId="18"/>
+    <cellStyle name="计算" xfId="19"/>
+    <cellStyle name="40% - 着色 4" xfId="20"/>
+    <cellStyle name="好" xfId="21"/>
+    <cellStyle name="40% - 着色 5" xfId="22"/>
+    <cellStyle name="40% - 着色 6" xfId="23"/>
+    <cellStyle name="60% - 着色 1" xfId="24"/>
+    <cellStyle name="输入" xfId="25"/>
+    <cellStyle name="60% - 着色 2" xfId="26"/>
+    <cellStyle name="60% - 着色 3" xfId="27"/>
+    <cellStyle name="60% - 着色 4" xfId="28"/>
+    <cellStyle name="链接单元格" xfId="29"/>
+    <cellStyle name="60% - 着色 5" xfId="30"/>
+    <cellStyle name="60% - 着色 6" xfId="31"/>
+    <cellStyle name="标题 1" xfId="32"/>
+    <cellStyle name="标题 2" xfId="33"/>
+    <cellStyle name="标题 3" xfId="34"/>
+    <cellStyle name="警告文本" xfId="35"/>
+    <cellStyle name="标题 4" xfId="36"/>
+    <cellStyle name="差" xfId="37"/>
+    <cellStyle name="汇总" xfId="38"/>
+    <cellStyle name="检查单元格" xfId="39"/>
+    <cellStyle name="着色 5" xfId="40"/>
+    <cellStyle name="适中" xfId="41"/>
+    <cellStyle name="输出" xfId="42"/>
+    <cellStyle name="着色 3" xfId="43"/>
+    <cellStyle name="着色 4" xfId="44"/>
+    <cellStyle name="着色 6" xfId="45"/>
+    <cellStyle name="注释" xfId="46"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1061,7 +1060,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1079,9 +1077,7 @@
         </a:gradFill>
         <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr val="739CC3">
-              <a:alpha val="100000"/>
-            </a:srgbClr>
+            <a:srgbClr val="739CC3"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="200000"/>
@@ -1096,25 +1092,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="50.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.1083333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.8833333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.10833333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="58.8833333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.3333333333333" style="3" customWidth="1"/>
     <col min="6" max="6" width="12" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.8833333333333" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1137,7 +1134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="4">
         <v>41593</v>
       </c>
@@ -1151,7 +1148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="4">
         <v>41593</v>
       </c>
@@ -1174,7 +1171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="4">
         <v>41592</v>
       </c>
@@ -1188,7 +1185,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="4">
         <v>41592</v>
       </c>
@@ -1202,7 +1199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="4">
         <v>41596</v>
       </c>
@@ -1225,7 +1222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="4">
         <v>41596</v>
       </c>
@@ -1239,7 +1236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="4">
         <v>41597</v>
       </c>
@@ -1253,7 +1250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="4">
         <v>41600</v>
       </c>
@@ -1273,7 +1270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="4">
         <v>41600</v>
       </c>
@@ -1287,7 +1284,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="4">
         <v>41606</v>
       </c>
@@ -1301,7 +1298,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="4">
         <v>41611</v>
       </c>
@@ -1312,7 +1309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="4">
         <v>41611</v>
       </c>
@@ -1326,7 +1323,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="4">
         <v>41611</v>
       </c>
@@ -1340,7 +1337,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customHeight="1" spans="1:4">
       <c r="A15" s="4">
         <v>41611</v>
       </c>
@@ -1354,35 +1351,35 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" customHeight="1" spans="1:4">
       <c r="A16" s="4">
         <v>41612</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
       <c r="A17" s="4">
         <v>41618</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
       <c r="A18" s="4">
         <v>41618</v>
       </c>
@@ -1393,89 +1390,159 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="4">
         <v>41631</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="4">
         <v>41282</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
       <c r="A21" s="4">
         <v>41655</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="4">
+        <v>41676</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="4">
+        <v>41676</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="4">
+        <v>41676</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:4">
+      <c r="A25" s="4">
+        <v>41681</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:4">
+      <c r="A26" s="4">
+        <v>41681</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="47.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="11.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="47.4416666666667" customWidth="1"/>
+    <col min="5" max="5" width="10.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="9.88333333333333" customWidth="1"/>
+    <col min="7" max="7" width="11.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -1487,62 +1554,62 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B6" s="3"/>
       <c r="D6" s="4"/>
@@ -1550,21 +1617,21 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="D8" s="4"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="D9" s="4"/>
@@ -1572,14 +1639,14 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="D11" s="4"/>
@@ -1587,8 +1654,7 @@
       <c r="F11" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\demo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28700" windowHeight="13040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28704" windowHeight="13044"/>
   </bookViews>
   <sheets>
     <sheet name="更新日志" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="89">
   <si>
     <t>日期</t>
   </si>
@@ -185,47 +190,202 @@
     <t>使用模版插件</t>
   </si>
   <si>
-    <t>结果</t>
+    <t>附件上传</t>
+  </si>
+  <si>
+    <t>附件上传错误</t>
+  </si>
+  <si>
+    <t>gb18030编码乱码修复，及嵌入式附件接收bug</t>
+  </si>
+  <si>
+    <t>自助</t>
+  </si>
+  <si>
+    <t>js 脚本错误</t>
+  </si>
+  <si>
+    <t>安装</t>
+  </si>
+  <si>
+    <t>配置文件大小写修改</t>
+  </si>
+  <si>
+    <t>删除错误bug</t>
+  </si>
+  <si>
+    <t>部门级别</t>
+  </si>
+  <si>
+    <t>添加后转向错误</t>
+  </si>
+  <si>
+    <t>系统标签，用户标签</t>
+  </si>
+  <si>
+    <t>附件下载错误，新增流程类型裁决人信息错误</t>
   </si>
   <si>
     <t>优先级</t>
   </si>
   <si>
-    <t>头像</t>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>流程自定义字段</t>
+  </si>
+  <si>
+    <t>流程分类归档</t>
+  </si>
+  <si>
+    <t>流程删除功能</t>
   </si>
   <si>
     <t>完成</t>
   </si>
   <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>高</t>
-  </si>
-  <si>
-    <t>用户配置文件</t>
-  </si>
-  <si>
-    <t>编辑器</t>
-  </si>
-  <si>
-    <t>编辑器自定义调用部分</t>
-  </si>
-  <si>
-    <t>保存路径</t>
+    <t>微信公共帐号</t>
+  </si>
+  <si>
+    <t>admin帐户无部门登录问题</t>
+  </si>
+  <si>
+    <t>附件</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复附件删除错误</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>文件上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加sid 提高文件安全性</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>think_file</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信功能</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hink_user</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>penid,westats</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ublic目录调整</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ublic\assets\=&gt;Public\</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -233,26 +393,41 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="23"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -260,12 +435,29 @@
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="52"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -273,27 +465,15 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -301,39 +481,49 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="60"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="BatangChe"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="17">
@@ -351,7 +541,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,25 +589,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,42 +623,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -443,11 +633,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thick">
         <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,26 +711,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="44"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,266 +731,232 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="42">
+    <cellStyle name="20% - 着色 1" xfId="1"/>
+    <cellStyle name="20% - 着色 2" xfId="6"/>
+    <cellStyle name="20% - 着色 3" xfId="2"/>
+    <cellStyle name="20% - 着色 4" xfId="7"/>
+    <cellStyle name="20% - 着色 5" xfId="10"/>
+    <cellStyle name="20% - 着色 6" xfId="12"/>
+    <cellStyle name="40% - 着色 1" xfId="3"/>
+    <cellStyle name="40% - 着色 2" xfId="13"/>
+    <cellStyle name="40% - 着色 3" xfId="5"/>
+    <cellStyle name="40% - 着色 4" xfId="15"/>
+    <cellStyle name="40% - 着色 5" xfId="17"/>
+    <cellStyle name="40% - 着色 6" xfId="18"/>
+    <cellStyle name="60% - 着色 1" xfId="19"/>
+    <cellStyle name="60% - 着色 2" xfId="21"/>
+    <cellStyle name="60% - 着色 3" xfId="22"/>
+    <cellStyle name="60% - 着色 4" xfId="23"/>
+    <cellStyle name="60% - 着色 5" xfId="25"/>
+    <cellStyle name="60% - 着色 6" xfId="26"/>
+    <cellStyle name="标题" xfId="4"/>
+    <cellStyle name="标题 1" xfId="27"/>
+    <cellStyle name="标题 2" xfId="28"/>
+    <cellStyle name="标题 3" xfId="29"/>
+    <cellStyle name="标题 4" xfId="31"/>
+    <cellStyle name="差" xfId="32"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="20% - 着色 1" xfId="2"/>
-    <cellStyle name="货币" xfId="3" builtinId="4"/>
-    <cellStyle name="20% - 着色 3" xfId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 着色 1" xfId="6"/>
-    <cellStyle name="百分比" xfId="7" builtinId="5"/>
-    <cellStyle name="标题" xfId="8"/>
-    <cellStyle name="40% - 着色 3" xfId="9"/>
-    <cellStyle name="货币[0]" xfId="10" builtinId="7"/>
-    <cellStyle name="20% - 着色 2" xfId="11"/>
-    <cellStyle name="20% - 着色 4" xfId="12"/>
-    <cellStyle name="着色 1" xfId="13"/>
-    <cellStyle name="解释性文本" xfId="14"/>
-    <cellStyle name="20% - 着色 5" xfId="15"/>
-    <cellStyle name="着色 2" xfId="16"/>
-    <cellStyle name="20% - 着色 6" xfId="17"/>
-    <cellStyle name="40% - 着色 2" xfId="18"/>
-    <cellStyle name="计算" xfId="19"/>
-    <cellStyle name="40% - 着色 4" xfId="20"/>
-    <cellStyle name="好" xfId="21"/>
-    <cellStyle name="40% - 着色 5" xfId="22"/>
-    <cellStyle name="40% - 着色 6" xfId="23"/>
-    <cellStyle name="60% - 着色 1" xfId="24"/>
-    <cellStyle name="输入" xfId="25"/>
-    <cellStyle name="60% - 着色 2" xfId="26"/>
-    <cellStyle name="60% - 着色 3" xfId="27"/>
-    <cellStyle name="60% - 着色 4" xfId="28"/>
-    <cellStyle name="链接单元格" xfId="29"/>
-    <cellStyle name="60% - 着色 5" xfId="30"/>
-    <cellStyle name="60% - 着色 6" xfId="31"/>
-    <cellStyle name="标题 1" xfId="32"/>
-    <cellStyle name="标题 2" xfId="33"/>
-    <cellStyle name="标题 3" xfId="34"/>
-    <cellStyle name="警告文本" xfId="35"/>
-    <cellStyle name="标题 4" xfId="36"/>
-    <cellStyle name="差" xfId="37"/>
-    <cellStyle name="汇总" xfId="38"/>
-    <cellStyle name="检查单元格" xfId="39"/>
-    <cellStyle name="着色 5" xfId="40"/>
-    <cellStyle name="适中" xfId="41"/>
-    <cellStyle name="输出" xfId="42"/>
-    <cellStyle name="着色 3" xfId="43"/>
-    <cellStyle name="着色 4" xfId="44"/>
-    <cellStyle name="着色 6" xfId="45"/>
-    <cellStyle name="注释" xfId="46"/>
+    <cellStyle name="好" xfId="16"/>
+    <cellStyle name="汇总" xfId="33"/>
+    <cellStyle name="计算" xfId="14"/>
+    <cellStyle name="检查单元格" xfId="34"/>
+    <cellStyle name="解释性文本" xfId="9"/>
+    <cellStyle name="警告文本" xfId="30"/>
+    <cellStyle name="链接单元格" xfId="24"/>
+    <cellStyle name="适中" xfId="36"/>
+    <cellStyle name="输出" xfId="37"/>
+    <cellStyle name="输入" xfId="20"/>
+    <cellStyle name="着色 1" xfId="8"/>
+    <cellStyle name="着色 2" xfId="11"/>
+    <cellStyle name="着色 3" xfId="38"/>
+    <cellStyle name="着色 4" xfId="39"/>
+    <cellStyle name="着色 5" xfId="35"/>
+    <cellStyle name="着色 6" xfId="40"/>
+    <cellStyle name="注释" xfId="41"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1060,6 +1255,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1092,569 +1288,744 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1083333333333" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.8833333333333" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.10833333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="58.8833333333333" customWidth="1"/>
-    <col min="5" max="5" width="12.3333333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.8833333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="58.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="4">
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>41593</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="4">
+    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>41593</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="4">
+    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>41592</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="4">
+    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>41592</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="4">
+    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>41596</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="4">
+    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>41596</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="4">
+    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>41597</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="4">
+    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>41600</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="4">
+    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>41600</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="4">
+    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>41606</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="4">
+    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>41611</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="4">
+    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>41611</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="4">
+    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>41611</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="4">
+    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>41611</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="4">
+    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>41612</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="4">
+    <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>41618</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="4">
+    <row r="18" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>41618</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="4">
+    <row r="19" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>41631</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="4">
+    <row r="20" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>41282</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="4">
+    <row r="21" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>41655</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="4">
+    <row r="22" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>41676</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="4">
+    <row r="23" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>41676</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="4">
+    <row r="24" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
         <v>41676</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="4">
+    <row r="25" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>41681</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:4">
-      <c r="A26" s="4">
+    <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>41681</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D26" t="s">
         <v>55</v>
       </c>
     </row>
+    <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>41682</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>41682</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>41687</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>41687</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>41687</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>41684</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>41684</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>41692</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>41695</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>41695</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>41695</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>41695</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="11.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="47.4416666666667" customWidth="1"/>
-    <col min="5" max="5" width="10.1083333333333" customWidth="1"/>
-    <col min="6" max="6" width="9.88333333333333" customWidth="1"/>
-    <col min="7" max="7" width="11.5583333333333" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="6">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="95">
   <si>
     <t>日期</t>
   </si>
@@ -378,6 +378,30 @@
       </rPr>
       <t>ublic\assets\=&gt;Public\</t>
     </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法查看已办理流程</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装文件</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整环境检查和条件确认</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户密码修改</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复确认密码显示成明文及不一致情况下也能提交的错误</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1289,11 +1313,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1876,6 +1900,48 @@
       </c>
       <c r="D38" s="10" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>41698</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>41698</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>41698</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="99">
   <si>
     <t>日期</t>
   </si>
@@ -226,36 +226,10 @@
     <t>附件下载错误，新增流程类型裁决人信息错误</t>
   </si>
   <si>
-    <t>优先级</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>流程自定义字段</t>
-  </si>
-  <si>
-    <t>流程分类归档</t>
-  </si>
-  <si>
-    <t>流程删除功能</t>
-  </si>
-  <si>
-    <t>完成</t>
-  </si>
-  <si>
-    <t>微信公共帐号</t>
-  </si>
-  <si>
-    <t>admin帐户无部门登录问题</t>
-  </si>
-  <si>
     <t>附件</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>修复附件删除错误</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -278,22 +252,25 @@
       </rPr>
       <t>传</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>调整</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>添加sid 提高文件安全性</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>think_file</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>s</t>
     </r>
     <r>
@@ -306,18 +283,22 @@
       </rPr>
       <t>id</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>微信功能</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>开发中</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>t</t>
     </r>
     <r>
@@ -330,10 +311,16 @@
       </rPr>
       <t>hink_user</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>o</t>
     </r>
     <r>
@@ -346,10 +333,16 @@
       </rPr>
       <t>penid,westats</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>P</t>
     </r>
     <r>
@@ -362,10 +355,16 @@
       </rPr>
       <t>ublic目录调整</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>P</t>
     </r>
     <r>
@@ -378,38 +377,72 @@
       </rPr>
       <t>ublic\assets\=&gt;Public\</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>无法查看已办理流程</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>安装文件</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>调整环境检查和条件确认</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>用户密码修改</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>修复确认密码显示成明文及不一致情况下也能提交的错误</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>流程自定义字段</t>
+  </si>
+  <si>
+    <t>流程分类归档</t>
+  </si>
+  <si>
+    <t>流程删除功能</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>微信公共帐号</t>
+  </si>
+  <si>
+    <t>admin帐户无部门登录问题</t>
+  </si>
+  <si>
+    <t>日志</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复日志查询错误</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>think_work_log</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name,dept_id,dept_name</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复邮件抄送发送错误</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -439,17 +472,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -458,28 +482,6 @@
       <b/>
       <sz val="11"/>
       <color indexed="62"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -501,6 +503,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
@@ -516,28 +555,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -548,6 +575,17 @@
       <name val="BatangChe"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="17">
@@ -571,19 +609,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,43 +627,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,6 +640,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,6 +706,39 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,6 +776,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="63"/>
       </left>
@@ -719,176 +801,132 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -899,13 +937,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -920,10 +958,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1313,11 +1351,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1327,8 +1365,8 @@
     <col min="3" max="3" width="9.33203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="58.88671875" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.77734375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="23.77734375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1842,13 +1880,13 @@
         <v>41695</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1856,19 +1894,19 @@
         <v>41695</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1876,16 +1914,16 @@
         <v>41695</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1893,13 +1931,13 @@
         <v>41695</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1907,13 +1945,13 @@
         <v>41698</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1921,13 +1959,13 @@
         <v>41698</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1935,17 +1973,51 @@
         <v>41698</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>41702</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>94</v>
       </c>
+      <c r="C42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>41702</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -1957,10 +2029,10 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.21875" customWidth="1"/>
     <col min="2" max="2" width="47.44140625" customWidth="1"/>
@@ -1971,7 +2043,7 @@
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1979,7 +2051,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -1991,12 +2063,12 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C2" s="6">
         <v>3</v>
@@ -2005,9 +2077,9 @@
       <c r="E2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C3" s="6">
         <v>3</v>
@@ -2017,9 +2089,9 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C4" s="6">
         <v>3</v>
@@ -2027,12 +2099,12 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
@@ -2041,9 +2113,9 @@
       <c r="E5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C6" s="6">
         <v>3</v>
@@ -2053,21 +2125,21 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="C8" s="6"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="5"/>
@@ -2075,14 +2147,14 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="5"/>
@@ -2090,7 +2162,7 @@
       <c r="G11" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="105">
   <si>
     <t>日期</t>
   </si>
@@ -263,28 +263,6 @@
     <t>think_file</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>id</t>
-    </r>
-  </si>
-  <si>
     <t>微信功能</t>
   </si>
   <si>
@@ -321,28 +299,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>penid,westats</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>P</t>
     </r>
     <r>
@@ -430,11 +386,43 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>user_name,dept_id,dept_name</t>
+    <t>修复邮件抄送发送错误</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>修复邮件抄送发送错误</t>
+    <t>sid:varchar(200)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>openid:varchar(50),westats(tinyint(3)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复邮件回复，收件人数量，附件添加等错误</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.smeoa.com/thread/21.html</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name:varchar(20),dept_id:int(11),dept_name:varchar(20)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>论坛</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题显示错误</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复部分bug</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +430,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -580,11 +568,21 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -802,7 +800,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -929,8 +927,11 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -964,8 +965,23 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - 着色 1" xfId="1"/>
     <cellStyle name="20% - 着色 2" xfId="6"/>
     <cellStyle name="20% - 着色 3" xfId="2"/>
@@ -991,6 +1007,7 @@
     <cellStyle name="标题 4" xfId="31"/>
     <cellStyle name="差" xfId="32"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
     <cellStyle name="好" xfId="16"/>
     <cellStyle name="汇总" xfId="33"/>
     <cellStyle name="计算" xfId="14"/>
@@ -1351,11 +1368,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1366,7 +1383,7 @@
     <col min="4" max="4" width="58.88671875" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="27.77734375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="23.77734375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1388,7 +1405,7 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1425,7 +1442,7 @@
       <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1476,7 +1493,7 @@
       <c r="F6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1524,7 +1541,7 @@
       <c r="F9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1905,8 +1922,8 @@
       <c r="E36" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>74</v>
+      <c r="G36" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1914,16 +1931,16 @@
         <v>41695</v>
       </c>
       <c r="B37" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="E37" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>78</v>
+      <c r="G37" s="11" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1931,13 +1948,13 @@
         <v>41695</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>71</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1951,7 +1968,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1959,13 +1976,13 @@
         <v>41698</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1973,19 +1990,19 @@
         <v>41698</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1993,13 +2010,13 @@
         <v>41702</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2013,13 +2030,72 @@
         <v>8</v>
       </c>
       <c r="D43" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>41704</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>41705</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>41709</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>41709</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D45" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -2051,7 +2127,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -2063,12 +2139,12 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" s="6">
         <v>3</v>
@@ -2079,7 +2155,7 @@
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" s="6">
         <v>3</v>
@@ -2091,7 +2167,7 @@
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="6">
         <v>3</v>
@@ -2099,12 +2175,12 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
@@ -2115,7 +2191,7 @@
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" s="6">
         <v>3</v>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="111">
   <si>
     <t>日期</t>
   </si>
@@ -423,6 +423,30 @@
   </si>
   <si>
     <t>修复部分bug</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部用户消息功能</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>think_message</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复附件删除错误</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1368,11 +1392,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47:D47"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2087,6 +2111,37 @@
       </c>
       <c r="D47" s="15" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>41717</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>41717</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\demo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28704" windowHeight="13044"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="更新日志" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="125">
   <si>
     <t>日期</t>
   </si>
@@ -447,6 +442,62 @@
   </si>
   <si>
     <t>修复附件删除错误</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>论坛</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>think_forum</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_top</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增置顶功能(感谢UA问天)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页板块移动错误</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程分组</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>think_flow_type</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善抄送功能</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1392,25 +1443,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="58.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.77734375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="58.875" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="5" customWidth="1"/>
+    <col min="7" max="7" width="23.75" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +1484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>41593</v>
       </c>
@@ -1447,7 +1498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>41593</v>
       </c>
@@ -1470,7 +1521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>41592</v>
       </c>
@@ -1484,7 +1535,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>41592</v>
       </c>
@@ -1498,7 +1549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>41596</v>
       </c>
@@ -1521,7 +1572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>41596</v>
       </c>
@@ -1535,7 +1586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>41597</v>
       </c>
@@ -1549,7 +1600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>41600</v>
       </c>
@@ -1569,7 +1620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>41600</v>
       </c>
@@ -1583,7 +1634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>41606</v>
       </c>
@@ -1597,7 +1648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>41611</v>
       </c>
@@ -1608,7 +1659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>41611</v>
       </c>
@@ -1622,7 +1673,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>41611</v>
       </c>
@@ -1636,7 +1687,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>41611</v>
       </c>
@@ -1650,7 +1701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>41612</v>
       </c>
@@ -1664,7 +1715,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>41618</v>
       </c>
@@ -1678,7 +1729,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>41618</v>
       </c>
@@ -1692,7 +1743,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>41631</v>
       </c>
@@ -1706,7 +1757,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>41282</v>
       </c>
@@ -1720,7 +1771,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>41655</v>
       </c>
@@ -1734,7 +1785,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>41676</v>
       </c>
@@ -1748,7 +1799,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>41676</v>
       </c>
@@ -1762,7 +1813,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>41676</v>
       </c>
@@ -1776,7 +1827,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>41681</v>
       </c>
@@ -1790,7 +1841,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>41681</v>
       </c>
@@ -1804,7 +1855,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>41682</v>
       </c>
@@ -1818,7 +1869,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>41682</v>
       </c>
@@ -1832,7 +1883,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>41687</v>
       </c>
@@ -1846,7 +1897,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <v>41687</v>
       </c>
@@ -1860,7 +1911,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>41687</v>
       </c>
@@ -1874,7 +1925,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>41684</v>
       </c>
@@ -1888,7 +1939,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>41684</v>
       </c>
@@ -1902,7 +1953,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <v>41692</v>
       </c>
@@ -1916,7 +1967,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <v>41695</v>
       </c>
@@ -1930,7 +1981,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <v>41695</v>
       </c>
@@ -1950,7 +2001,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <v>41695</v>
       </c>
@@ -1967,7 +2018,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <v>41695</v>
       </c>
@@ -1981,7 +2032,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <v>41698</v>
       </c>
@@ -1995,7 +2046,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <v>41698</v>
       </c>
@@ -2009,7 +2060,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
         <v>41698</v>
       </c>
@@ -2029,7 +2080,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
         <v>41702</v>
       </c>
@@ -2043,7 +2094,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
         <v>41702</v>
       </c>
@@ -2057,7 +2108,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
         <v>41704</v>
       </c>
@@ -2071,7 +2122,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
         <v>41705</v>
       </c>
@@ -2085,7 +2136,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
         <v>41709</v>
       </c>
@@ -2099,7 +2150,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
         <v>41709</v>
       </c>
@@ -2113,7 +2164,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
         <v>41717</v>
       </c>
@@ -2130,7 +2181,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
         <v>41717</v>
       </c>
@@ -2142,6 +2193,77 @@
       </c>
       <c r="D49" s="15" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="8">
+        <v>41750</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="8">
+        <v>41757</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="8">
+        <v>41759</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="8">
+        <v>41760</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2163,18 +2285,18 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.21875" customWidth="1"/>
-    <col min="2" max="2" width="47.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.25" customWidth="1"/>
+    <col min="2" max="2" width="47.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2197,7 +2319,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>86</v>
       </c>
@@ -2208,7 +2330,7 @@
       <c r="E2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>87</v>
       </c>
@@ -2220,7 +2342,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>88</v>
       </c>
@@ -2233,7 +2355,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>90</v>
       </c>
@@ -2244,7 +2366,7 @@
       <c r="E5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>91</v>
       </c>
@@ -2256,21 +2378,21 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="C8" s="6"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="5"/>
@@ -2278,14 +2400,14 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="5"/>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\demo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="13050"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="127">
   <si>
     <t>日期</t>
   </si>
@@ -498,6 +503,14 @@
   </si>
   <si>
     <t>完善抄送功能</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进导航</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1443,11 +1456,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2264,6 +2277,20 @@
       </c>
       <c r="D53" s="15" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="8">
+        <v>41766</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="135">
   <si>
     <t>日期</t>
   </si>
@@ -511,6 +511,38 @@
   </si>
   <si>
     <t>改进导航</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>人脉</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复导入错误</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄送人显示问题</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组删除问题</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1456,11 +1488,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2291,6 +2323,48 @@
       </c>
       <c r="D54" s="15" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="8">
+        <v>41767</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="8">
+        <v>41768</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="8">
+        <v>41768</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\demo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="13050"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="142">
   <si>
     <t>日期</t>
   </si>
@@ -543,6 +538,34 @@
   </si>
   <si>
     <t>分组删除问题</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义字段功能</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>think_flow_field/think_flow_field_data</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>think_user</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_name</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1051,7 +1074,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1084,15 +1107,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1488,11 +1502,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1500,10 +1514,10 @@
     <col min="1" max="1" width="13.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="21.375" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="58.875" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="23.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="48.625" customWidth="1"/>
+    <col min="5" max="5" width="20.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1525,7 +1539,7 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1562,7 +1576,7 @@
       <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1613,7 +1627,7 @@
       <c r="F6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1661,7 +1675,7 @@
       <c r="F9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2042,7 +2056,7 @@
       <c r="E36" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="9" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2059,7 +2073,7 @@
       <c r="E37" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="9" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2121,7 +2135,7 @@
       <c r="E41" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="9" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2177,7 +2191,7 @@
       <c r="C45" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="11" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2191,7 +2205,7 @@
       <c r="C46" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="12" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2205,7 +2219,7 @@
       <c r="C47" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="12" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2219,7 +2233,7 @@
       <c r="C48" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="12" t="s">
         <v>107</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -2236,7 +2250,7 @@
       <c r="C49" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="12" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2250,13 +2264,13 @@
       <c r="C50" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="12" t="s">
         <v>114</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G50" s="12" t="s">
+      <c r="G50" s="5" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2270,7 +2284,7 @@
       <c r="C51" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="12" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2284,7 +2298,7 @@
       <c r="C52" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="12" t="s">
         <v>119</v>
       </c>
       <c r="E52" s="5" t="s">
@@ -2293,7 +2307,7 @@
       <c r="F52" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G52" s="12" t="s">
+      <c r="G52" s="5" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2307,7 +2321,7 @@
       <c r="C53" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="12" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2321,7 +2335,7 @@
       <c r="C54" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="12" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2335,7 +2349,7 @@
       <c r="C55" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="12" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2349,7 +2363,7 @@
       <c r="C56" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="12" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2363,8 +2377,45 @@
       <c r="C57" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="D57" s="12" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="8">
+        <v>41784</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="8">
+        <v>41784</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="145">
   <si>
     <t>日期</t>
   </si>
@@ -566,6 +566,18 @@
   </si>
   <si>
     <t>name</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除用户功能</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommonAction.class.php CommonModel.class.php</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件上传。显示修改为Widget</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1502,11 +1514,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2416,6 +2428,48 @@
       </c>
       <c r="G59" s="5" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="8">
+        <v>41788</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="8">
+        <v>41791</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="8">
+        <v>41792</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\demo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更新日志" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="140">
   <si>
     <t>日期</t>
   </si>
@@ -345,30 +350,9 @@
     <t>修复确认密码显示成明文及不一致情况下也能提交的错误</t>
   </si>
   <si>
-    <t>优先级</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>流程自定义字段</t>
-  </si>
-  <si>
-    <t>流程分类归档</t>
-  </si>
-  <si>
-    <t>流程删除功能</t>
-  </si>
-  <si>
-    <t>完成</t>
-  </si>
-  <si>
     <t>微信公共帐号</t>
   </si>
   <si>
-    <t>admin帐户无部门登录问题</t>
-  </si>
-  <si>
     <t>日志</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -578,6 +562,14 @@
   </si>
   <si>
     <t>附件上传。显示修改为Widget</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复图标不显示错误</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1086,11 +1078,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1099,13 +1088,7 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1514,55 +1497,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="48.625" customWidth="1"/>
-    <col min="5" max="5" width="20.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
+      <c r="A2" s="5">
         <v>41593</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
@@ -1570,36 +1553,36 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
+      <c r="A3" s="5">
         <v>41593</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
+      <c r="A4" s="5">
         <v>41592</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
@@ -1607,13 +1590,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
+      <c r="A5" s="5">
         <v>41592</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
@@ -1621,36 +1604,36 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
+      <c r="A6" s="5">
         <v>41596</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
+      <c r="A7" s="5">
         <v>41596</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
@@ -1658,13 +1641,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+      <c r="A8" s="5">
         <v>41597</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
@@ -1672,33 +1655,33 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
+      <c r="A9" s="5">
         <v>41600</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
+      <c r="A10" s="5">
         <v>41600</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D10" t="s">
@@ -1706,13 +1689,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
+      <c r="A11" s="5">
         <v>41606</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D11" t="s">
@@ -1720,24 +1703,24 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8">
+      <c r="A12" s="5">
         <v>41611</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8">
+      <c r="A13" s="5">
         <v>41611</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
@@ -1745,13 +1728,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8">
+      <c r="A14" s="5">
         <v>41611</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
@@ -1759,13 +1742,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8">
+      <c r="A15" s="5">
         <v>41611</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
@@ -1773,13 +1756,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8">
+      <c r="A16" s="5">
         <v>41612</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D16" t="s">
@@ -1787,13 +1770,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8">
+      <c r="A17" s="5">
         <v>41618</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="s">
@@ -1801,13 +1784,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8">
+      <c r="A18" s="5">
         <v>41618</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D18" t="s">
@@ -1815,13 +1798,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8">
+      <c r="A19" s="5">
         <v>41631</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D19" t="s">
@@ -1829,13 +1812,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8">
+      <c r="A20" s="5">
         <v>41282</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D20" t="s">
@@ -1843,13 +1826,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8">
+      <c r="A21" s="5">
         <v>41655</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
@@ -1857,13 +1840,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8">
+      <c r="A22" s="5">
         <v>41676</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
@@ -1871,13 +1854,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8">
+      <c r="A23" s="5">
         <v>41676</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D23" t="s">
@@ -1885,13 +1868,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8">
+      <c r="A24" s="5">
         <v>41676</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D24" t="s">
@@ -1899,13 +1882,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="8">
+      <c r="A25" s="5">
         <v>41681</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
@@ -1913,13 +1896,13 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8">
+      <c r="A26" s="5">
         <v>41681</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D26" t="s">
@@ -1927,13 +1910,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8">
+      <c r="A27" s="5">
         <v>41682</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D27" t="s">
@@ -1941,13 +1924,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8">
+      <c r="A28" s="5">
         <v>41682</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
@@ -1955,13 +1938,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8">
+      <c r="A29" s="5">
         <v>41687</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
@@ -1969,13 +1952,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8">
+      <c r="A30" s="5">
         <v>41687</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
@@ -1983,13 +1966,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="8">
+      <c r="A31" s="5">
         <v>41687</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D31" t="s">
@@ -1997,13 +1980,13 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="8">
+      <c r="A32" s="5">
         <v>41684</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D32" t="s">
@@ -2011,13 +1994,13 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8">
+      <c r="A33" s="5">
         <v>41684</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D33" t="s">
@@ -2025,13 +2008,13 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8">
+      <c r="A34" s="5">
         <v>41692</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D34" t="s">
@@ -2039,437 +2022,451 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8">
+      <c r="A35" s="5">
         <v>41695</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="10" t="s">
+      <c r="C35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8">
+      <c r="A36" s="5">
         <v>41695</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="5">
+        <v>41695</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="5">
+        <v>41695</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="5">
+        <v>41698</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="5">
+        <v>41698</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="5">
+        <v>41698</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="5">
+        <v>41702</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="5">
+        <v>41702</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="5">
+        <v>41704</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="5">
+        <v>41705</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="5">
+        <v>41709</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="5">
+        <v>41709</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="8">
-        <v>41695</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G37" s="9" t="s">
+      <c r="C47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="8">
-        <v>41695</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="8">
-        <v>41698</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="8">
-        <v>41698</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="8">
-        <v>41698</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G41" s="9" t="s">
+    <row r="48" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="5">
+        <v>41717</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="8">
-        <v>41702</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="8">
-        <v>41702</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="8">
-        <v>41704</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="8">
-        <v>41705</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="11" t="s">
+      <c r="E48" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="5">
+        <v>41717</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="5">
+        <v>41750</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="8">
-        <v>41709</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="8">
-        <v>41709</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="8">
-        <v>41717</v>
-      </c>
-      <c r="B48" s="5" t="s">
+      <c r="D50" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="G50" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48" s="5" t="s">
+    </row>
+    <row r="51" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="5">
+        <v>41757</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="8">
-        <v>41717</v>
-      </c>
-      <c r="B49" s="5" t="s">
+      <c r="C51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="12" t="s">
+    </row>
+    <row r="52" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="5">
+        <v>41759</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="8">
-        <v>41750</v>
-      </c>
-      <c r="B50" s="5" t="s">
+      <c r="C52" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="12" t="s">
+      <c r="D52" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="8">
-        <v>41757</v>
-      </c>
-      <c r="B51" s="5" t="s">
+      <c r="G52" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="12" t="s">
+    </row>
+    <row r="53" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="5">
+        <v>41760</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="8">
-        <v>41759</v>
-      </c>
-      <c r="B52" s="5" t="s">
+      <c r="D53" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="5" t="s">
+    </row>
+    <row r="54" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="5">
+        <v>41766</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="C54" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E52" s="5" t="s">
+    </row>
+    <row r="55" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="5">
+        <v>41767</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="C55" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="D55" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="8">
-        <v>41760</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="5" t="s">
+    <row r="56" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="5">
+        <v>41768</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="C56" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="8">
-        <v>41766</v>
-      </c>
-      <c r="B54" s="5" t="s">
+      <c r="D56" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D54" s="12" t="s">
+    </row>
+    <row r="57" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="5">
+        <v>41768</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="8">
-        <v>41767</v>
-      </c>
-      <c r="B55" s="5" t="s">
+      <c r="C57" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C55" s="5" t="s">
+    </row>
+    <row r="58" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="5">
+        <v>41784</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D58" s="9" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="8">
-        <v>41768</v>
-      </c>
-      <c r="B56" s="5" t="s">
+      <c r="E58" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C56" s="5" t="s">
+    </row>
+    <row r="59" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="5">
+        <v>41784</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="C59" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="8">
-        <v>41768</v>
-      </c>
-      <c r="B57" s="5" t="s">
+      <c r="F59" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="G59" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="5">
+        <v>41788</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D57" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="8">
-        <v>41784</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="5" t="s">
+      <c r="C60" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" t="s">
         <v>135</v>
       </c>
-      <c r="D58" s="12" t="s">
+    </row>
+    <row r="61" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="5">
+        <v>41791</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="5">
+        <v>41792</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" t="s">
         <v>136</v>
       </c>
-      <c r="E58" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="8">
-        <v>41784</v>
-      </c>
-      <c r="B59" s="5" t="s">
+    </row>
+    <row r="63" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="5">
+        <v>41793</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D63" t="s">
         <v>138</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="8">
-        <v>41788</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D60" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="8">
-        <v>41791</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D61" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="8">
-        <v>41792</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D62" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2485,140 +2482,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.25" customWidth="1"/>
-    <col min="2" max="2" width="47.5" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="6">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="6">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="6">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="6">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="5"/>
+    </row>
+    <row r="3" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="更新日志" sheetId="1" r:id="rId1"/>
     <sheet name="计划" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="147">
   <si>
     <t>日期</t>
   </si>
@@ -572,12 +572,64 @@
     <t>日期控件</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
+  <si>
+    <t>消息</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加新消息提示</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>think_message</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ser_id</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wner_id</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程删除功能</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -720,14 +772,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -947,7 +991,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1072,9 +1116,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1103,14 +1144,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="1"/>
     <cellStyle name="20% - 着色 2" xfId="6"/>
     <cellStyle name="20% - 着色 3" xfId="2"/>
@@ -1136,7 +1177,6 @@
     <cellStyle name="标题 4" xfId="31"/>
     <cellStyle name="差" xfId="32"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
     <cellStyle name="好" xfId="16"/>
     <cellStyle name="汇总" xfId="33"/>
     <cellStyle name="计算" xfId="14"/>
@@ -1497,11 +1537,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2186,7 +2226,7 @@
       <c r="C45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2200,7 +2240,7 @@
       <c r="C46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="8" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2214,7 +2254,7 @@
       <c r="C47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="8" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2228,7 +2268,7 @@
       <c r="C48" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E48" s="3" t="s">
@@ -2245,7 +2285,7 @@
       <c r="C49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="8" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2259,7 +2299,7 @@
       <c r="C50" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="8" t="s">
         <v>107</v>
       </c>
       <c r="E50" s="3" t="s">
@@ -2279,7 +2319,7 @@
       <c r="C51" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="8" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2293,7 +2333,7 @@
       <c r="C52" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E52" s="3" t="s">
@@ -2316,7 +2356,7 @@
       <c r="C53" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="8" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2330,7 +2370,7 @@
       <c r="C54" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="8" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2344,7 +2384,7 @@
       <c r="C55" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="8" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2358,7 +2398,7 @@
       <c r="C56" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="8" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2372,7 +2412,7 @@
       <c r="C57" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="8" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2386,7 +2426,7 @@
       <c r="C58" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="8" t="s">
         <v>129</v>
       </c>
       <c r="E58" s="3" t="s">
@@ -2469,13 +2509,47 @@
         <v>138</v>
       </c>
     </row>
+    <row r="64" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="5">
+        <v>41814</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="5">
+        <v>41814</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D45" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -2484,7 +2558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="153">
   <si>
     <t>日期</t>
   </si>
@@ -622,6 +622,30 @@
   </si>
   <si>
     <t>日程删除功能</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Thinkphp部署模式下的js错误</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期区间选择控件改进</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进打印预览效果</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持帐号绑定后一键登录</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1537,11 +1561,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66:D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2544,6 +2568,62 @@
       </c>
       <c r="D65" s="9" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="5">
+        <v>41820</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="5">
+        <v>41820</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="5">
+        <v>41820</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="5">
+        <v>41820</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="161">
   <si>
     <t>日期</t>
   </si>
@@ -646,6 +646,38 @@
   </si>
   <si>
     <t>微信</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机端UI优化</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加后台接收功能</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持通过客服消息，实时推送消息</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>论坛</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>论坛数据表变更</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>think_post-&gt;think_forum_post</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1561,11 +1593,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66:D69"/>
+      <selection pane="bottomLeft" activeCell="A73" sqref="A71:A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2556,7 +2588,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="5">
         <v>41814</v>
       </c>
@@ -2570,7 +2602,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="5">
         <v>41820</v>
       </c>
@@ -2584,7 +2616,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="5">
         <v>41820</v>
       </c>
@@ -2598,7 +2630,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="5">
         <v>41820</v>
       </c>
@@ -2612,7 +2644,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="5">
         <v>41820</v>
       </c>
@@ -2624,6 +2656,65 @@
       </c>
       <c r="D69" s="7" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="5">
+        <v>41820</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="5">
+        <v>41843</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="5">
+        <v>41843</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="5">
+        <v>41843</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="166">
   <si>
     <t>日期</t>
   </si>
@@ -678,6 +678,26 @@
   </si>
   <si>
     <t>think_post-&gt;think_forum_post</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件上传错误</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>think_work_log</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增 add_file</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1593,11 +1613,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A73" sqref="A71:A73"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2588,7 +2608,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="5">
         <v>41814</v>
       </c>
@@ -2602,7 +2622,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="5">
         <v>41820</v>
       </c>
@@ -2616,7 +2636,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="5">
         <v>41820</v>
       </c>
@@ -2630,7 +2650,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="5">
         <v>41820</v>
       </c>
@@ -2644,7 +2664,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="5">
         <v>41820</v>
       </c>
@@ -2658,7 +2678,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="5">
         <v>41820</v>
       </c>
@@ -2672,7 +2692,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="5">
         <v>41843</v>
       </c>
@@ -2686,7 +2706,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5">
         <v>41843</v>
       </c>
@@ -2700,7 +2720,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="5">
         <v>41843</v>
       </c>
@@ -2715,6 +2735,26 @@
       </c>
       <c r="E73" s="3" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="5">
+        <v>41844</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="168">
   <si>
     <t>日期</t>
   </si>
@@ -698,6 +698,14 @@
   </si>
   <si>
     <t>新增 add_file</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法退回错误</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1613,11 +1621,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G75" sqref="G75"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2755,6 +2763,20 @@
       </c>
       <c r="G74" s="3" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="5">
+        <v>41848</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\smeoa\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1624,8 +1624,8 @@
   <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\smeoa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="172">
   <si>
     <t>日期</t>
   </si>
@@ -706,6 +706,22 @@
   </si>
   <si>
     <t>无法退回错误</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>转发时附件不能发送错误</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择联系人时，出现禁用的员工</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1621,11 +1637,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="A76:D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2777,6 +2793,34 @@
       </c>
       <c r="D75" s="7" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="5">
+        <v>41860</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="5">
+        <v>41860</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="179">
   <si>
     <t>日期</t>
   </si>
@@ -722,6 +722,34 @@
   </si>
   <si>
     <t>选择联系人时，出现禁用的员工</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加申请权限</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>think_flow_type</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>request_duy,report_duty</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加SSL链接功能</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复不显示添加按钮的BUG</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1637,11 +1665,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A76" sqref="A76:D77"/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2821,6 +2849,54 @@
       </c>
       <c r="D77" s="7" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="5">
+        <v>41871</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="5">
+        <v>41871</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="5">
+        <v>41871</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="180">
   <si>
     <t>日期</t>
   </si>
@@ -750,6 +750,10 @@
   </si>
   <si>
     <t>修复不显示添加按钮的BUG</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增流程导出功能</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1665,14 +1669,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="21.375" style="3" customWidth="1"/>
@@ -1683,7 +1687,7 @@
     <col min="7" max="7" width="17.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1706,7 +1710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>41593</v>
       </c>
@@ -1720,7 +1724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>41593</v>
       </c>
@@ -1743,7 +1747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>41592</v>
       </c>
@@ -1757,7 +1761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>41592</v>
       </c>
@@ -1771,7 +1775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>41596</v>
       </c>
@@ -1794,7 +1798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>41596</v>
       </c>
@@ -1808,7 +1812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>41597</v>
       </c>
@@ -1822,7 +1826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>41600</v>
       </c>
@@ -1842,7 +1846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>41600</v>
       </c>
@@ -1856,7 +1860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>41606</v>
       </c>
@@ -1870,7 +1874,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>41611</v>
       </c>
@@ -1881,7 +1885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>41611</v>
       </c>
@@ -1895,7 +1899,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>41611</v>
       </c>
@@ -1909,7 +1913,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>41611</v>
       </c>
@@ -1923,7 +1927,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>41612</v>
       </c>
@@ -1937,7 +1941,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>41618</v>
       </c>
@@ -1951,7 +1955,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>41618</v>
       </c>
@@ -1965,7 +1969,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>41631</v>
       </c>
@@ -1979,7 +1983,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>41282</v>
       </c>
@@ -1993,7 +1997,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>41655</v>
       </c>
@@ -2007,7 +2011,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>41676</v>
       </c>
@@ -2021,7 +2025,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>41676</v>
       </c>
@@ -2035,7 +2039,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>41676</v>
       </c>
@@ -2049,7 +2053,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>41681</v>
       </c>
@@ -2063,7 +2067,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>41681</v>
       </c>
@@ -2077,7 +2081,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>41682</v>
       </c>
@@ -2091,7 +2095,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>41682</v>
       </c>
@@ -2105,7 +2109,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>41687</v>
       </c>
@@ -2119,7 +2123,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>41687</v>
       </c>
@@ -2133,7 +2137,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>41687</v>
       </c>
@@ -2147,7 +2151,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>41684</v>
       </c>
@@ -2161,7 +2165,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>41684</v>
       </c>
@@ -2175,7 +2179,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>41692</v>
       </c>
@@ -2189,7 +2193,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>41695</v>
       </c>
@@ -2203,7 +2207,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>41695</v>
       </c>
@@ -2223,7 +2227,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>41695</v>
       </c>
@@ -2240,7 +2244,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>41695</v>
       </c>
@@ -2254,7 +2258,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>41698</v>
       </c>
@@ -2268,7 +2272,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>41698</v>
       </c>
@@ -2282,7 +2286,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>41698</v>
       </c>
@@ -2302,7 +2306,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>41702</v>
       </c>
@@ -2316,7 +2320,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>41702</v>
       </c>
@@ -2330,7 +2334,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>41704</v>
       </c>
@@ -2344,7 +2348,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>41705</v>
       </c>
@@ -2358,7 +2362,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <v>41709</v>
       </c>
@@ -2372,7 +2376,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <v>41709</v>
       </c>
@@ -2386,7 +2390,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <v>41717</v>
       </c>
@@ -2403,7 +2407,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <v>41717</v>
       </c>
@@ -2417,7 +2421,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5">
         <v>41750</v>
       </c>
@@ -2437,7 +2441,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <v>41757</v>
       </c>
@@ -2451,7 +2455,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5">
         <v>41759</v>
       </c>
@@ -2474,7 +2478,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
         <v>41760</v>
       </c>
@@ -2488,7 +2492,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
         <v>41766</v>
       </c>
@@ -2502,7 +2506,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <v>41767</v>
       </c>
@@ -2516,7 +2520,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <v>41768</v>
       </c>
@@ -2530,7 +2534,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>41768</v>
       </c>
@@ -2544,7 +2548,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
         <v>41784</v>
       </c>
@@ -2561,7 +2565,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
         <v>41784</v>
       </c>
@@ -2581,7 +2585,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
         <v>41788</v>
       </c>
@@ -2595,7 +2599,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5">
         <v>41791</v>
       </c>
@@ -2609,7 +2613,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="5">
         <v>41792</v>
       </c>
@@ -2623,7 +2627,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
         <v>41793</v>
       </c>
@@ -2637,7 +2641,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="5">
         <v>41814</v>
       </c>
@@ -2660,7 +2664,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="5">
         <v>41814</v>
       </c>
@@ -2674,7 +2678,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="5">
         <v>41820</v>
       </c>
@@ -2688,7 +2692,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="5">
         <v>41820</v>
       </c>
@@ -2702,7 +2706,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="5">
         <v>41820</v>
       </c>
@@ -2716,7 +2720,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="5">
         <v>41820</v>
       </c>
@@ -2730,7 +2734,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="5">
         <v>41820</v>
       </c>
@@ -2744,7 +2748,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="5">
         <v>41843</v>
       </c>
@@ -2758,7 +2762,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5">
         <v>41843</v>
       </c>
@@ -2772,7 +2776,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="5">
         <v>41843</v>
       </c>
@@ -2789,7 +2793,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="5">
         <v>41844</v>
       </c>
@@ -2809,7 +2813,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="5">
         <v>41848</v>
       </c>
@@ -2823,7 +2827,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="5">
         <v>41860</v>
       </c>
@@ -2837,7 +2841,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="5">
         <v>41860</v>
       </c>
@@ -2851,7 +2855,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="5">
         <v>41871</v>
       </c>
@@ -2871,7 +2875,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="5">
         <v>41871</v>
       </c>
@@ -2885,7 +2889,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="5">
         <v>41871</v>
       </c>
@@ -2897,6 +2901,20 @@
       </c>
       <c r="D80" s="7" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="5">
+        <v>41874</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="182">
   <si>
     <t>日期</t>
   </si>
@@ -754,6 +754,14 @@
   </si>
   <si>
     <t>新增流程导出功能</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复文件夹权限确认错误</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1669,11 +1677,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2915,6 +2923,20 @@
       </c>
       <c r="D81" s="7" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="5">
+        <v>41874</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -15,12 +15,12 @@
     <sheet name="更新日志" sheetId="1" r:id="rId1"/>
     <sheet name="计划" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="192">
   <si>
     <t>日期</t>
   </si>
@@ -737,10 +737,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>request_duy,report_duty</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>增加SSL链接功能</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -762,6 +758,71 @@
   </si>
   <si>
     <t>修复文件夹权限确认错误</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>request_du</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y,report_duty</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复无法编辑日程错误</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进版权链接样式</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机端子导航样式</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进新公告统计方式</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻灯片</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1677,11 +1738,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2879,8 +2940,8 @@
       <c r="E78" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>175</v>
+      <c r="G78" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -2894,7 +2955,7 @@
         <v>172</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -2902,13 +2963,13 @@
         <v>41871</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -2922,7 +2983,7 @@
         <v>111</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -2930,13 +2991,80 @@
         <v>41874</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="5">
+        <v>41875</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="5">
+        <v>41875</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="5">
+        <v>41875</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="5">
+        <v>41876</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="5">
+        <v>41877</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="206">
   <si>
     <t>日期</t>
   </si>
@@ -823,6 +823,62 @@
   </si>
   <si>
     <t>开发中</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加消息提醒</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计已读公告错误</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加附件功能</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件下载功能错误</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消默认编辑器窗口-》用自定义控件替代</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择邮件接收人</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法在iphpne 选择邮件接收人</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制开发</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户管理</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1738,11 +1794,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+      <selection pane="bottomLeft" activeCell="D95" sqref="A89:D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3065,6 +3121,115 @@
       </c>
       <c r="C87" s="6" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="5">
+        <v>41880</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="5">
+        <v>41880</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D89" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="5">
+        <v>41883</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D90" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="5">
+        <v>41885</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D91" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="5">
+        <v>41885</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D92" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="5">
+        <v>41887</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D93" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="5">
+        <v>41888</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D94" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="5">
+        <v>41890</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D95" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="219">
   <si>
     <t>日期</t>
   </si>
@@ -879,6 +879,58 @@
   </si>
   <si>
     <t>客户管理</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑器</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改编辑器加载方式</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改日期搜索错误</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整Z-INDEX 10 -&gt; 12</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出窗</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚动条问题</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码刷新错误</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程被拒绝和通过时通知流程发起人</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1376,7 +1428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1405,6 +1457,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1794,11 +1849,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D95" sqref="A89:D95"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A101" sqref="A101:D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3230,6 +3285,90 @@
       </c>
       <c r="D95" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="5">
+        <v>41891</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D96" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="5">
+        <v>41891</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D97" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="5">
+        <v>41892</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D98" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="5">
+        <v>41901</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D99" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="5">
+        <v>41904</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D100" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="5">
+        <v>41916</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="221">
   <si>
     <t>日期</t>
   </si>
@@ -931,6 +931,14 @@
   </si>
   <si>
     <t>流程被拒绝和通过时通知流程发起人</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复编辑器方式</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>在首页点击待办时错误</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1849,11 +1857,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A101" sqref="A101:D101"/>
+      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3369,6 +3377,34 @@
       </c>
       <c r="D101" s="10" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="5">
+        <v>41923</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D102" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="5">
+        <v>41923</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D103" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -15,12 +15,12 @@
     <sheet name="更新日志" sheetId="1" r:id="rId1"/>
     <sheet name="计划" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" calcOnSave="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="223">
   <si>
     <t>日期</t>
   </si>
@@ -779,6 +779,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>y,report_duty</t>
@@ -939,6 +940,14 @@
   </si>
   <si>
     <t>在首页点击待办时错误</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日志</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑是附件丢失错误</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1857,11 +1866,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3405,6 +3414,20 @@
       </c>
       <c r="D103" t="s">
         <v>220</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="5">
+        <v>41923</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/更新日志.xlsx
+++ b/更新日志.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="224">
   <si>
     <t>日期</t>
   </si>
@@ -948,6 +948,10 @@
   </si>
   <si>
     <t>编辑是附件丢失错误</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法正常退回</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1866,11 +1870,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
+      <selection pane="bottomLeft" activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3428,6 +3432,20 @@
       </c>
       <c r="D104" s="7" t="s">
         <v>222</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="5">
+        <v>41946</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
